--- a/va_facility_data_2025-02-20/Patchogue VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Patchogue%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Patchogue VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Patchogue%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra9b1a88bf62946c89ebc08eba0ed8883"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb6d839c26af0442997a9efcabdc3e0ad"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R23f8a1d55fbf44a7830acc3240fbea5d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6a5d391f8bb7422c861c0108bf040864"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Racc6992402c948d9a2fdcd6746d4e131"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2478c4e84e1446e6a8a1469a29f3202c"/>
   </x:sheets>
 </x:workbook>
 </file>
